--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1222866.238783955</v>
+        <v>1220660.145377517</v>
       </c>
     </row>
     <row r="7">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>161.4125322208644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.9268023686672</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>180.0198424776875</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>90.52092544482748</v>
       </c>
       <c r="Y2" t="n">
-        <v>372.1627276434463</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.9526390315486</v>
+        <v>65.95263903154856</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57.88099638015517</v>
       </c>
       <c r="S3" t="n">
-        <v>81.6853375606736</v>
+        <v>159.0353604252219</v>
       </c>
       <c r="T3" t="n">
         <v>197.4201388450818</v>
@@ -798,7 +798,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>125.352067110684</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739085</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>26.36235205138334</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>11.29173897174313</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>153.6130780790967</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>173.0310041287607</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7.634490799661747</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>133.2137407186092</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>354.752216257426</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>11.83422226195126</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.88284096151478</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>143.6053114087907</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>18.26879610203962</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>112.6472266169478</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.626889274475</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>7.601081015446567</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>216.7062258592457</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>18.2687961020394</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>57.02146927219666</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>10.5745280300125</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6268892744753</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,7 +2770,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>13.14510078403977</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>120.6353666620232</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>46.36919457526832</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>195.1333163832222</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880148</v>
+        <v>6.081513486880155</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213001</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535743</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V35" t="n">
         <v>292.2568421840891</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,7 +3427,7 @@
         <v>131.751404812582</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321665</v>
+        <v>90.1507621475527</v>
       </c>
       <c r="E37" t="n">
         <v>110.9385463605233</v>
@@ -3439,10 +3439,10 @@
         <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
-        <v>86.6451253508781</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379229</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400151</v>
+        <v>53.43673638400152</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
@@ -3478,7 +3478,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U37" t="n">
-        <v>250.716421919567</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>216.6422270377822</v>
@@ -3487,7 +3487,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y37" t="n">
         <v>183.089237066049</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213001</v>
+        <v>73.69234550213004</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535754</v>
       </c>
       <c r="U38" t="n">
         <v>215.4997556728561</v>
@@ -3670,16 +3670,16 @@
         <v>110.9385463605233</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>73.73018460682991</v>
       </c>
       <c r="G40" t="n">
-        <v>76.02990583396245</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379227</v>
+        <v>60.85700412379229</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400151</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901234</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>250.716421919567</v>
@@ -3740,7 +3740,7 @@
         <v>347.2384253774347</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849629</v>
       </c>
       <c r="D41" t="n">
         <v>319.1876253346371</v>
@@ -3758,7 +3758,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880148</v>
+        <v>6.081513486880112</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958915</v>
+        <v>121.3672693112781</v>
       </c>
       <c r="C43" t="n">
         <v>131.751404812582</v>
@@ -3913,10 +3913,10 @@
         <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
-        <v>109.2595986282749</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379229</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400151</v>
+        <v>53.43673638400149</v>
       </c>
       <c r="S43" t="n">
         <v>154.2736090453961</v>
@@ -3961,7 +3961,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X43" t="n">
-        <v>167.2449445183781</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y43" t="n">
         <v>183.089237066049</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880141</v>
+        <v>6.081513486880155</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>168.4225538535743</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
         <v>292.2568421840891</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247694</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>131.751404812582</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>79.22433082924346</v>
       </c>
       <c r="E46" t="n">
-        <v>64.66662709630302</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F46" t="n">
         <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729824</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>109.2595986282749</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379229</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453961</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473.4154778383031</v>
+        <v>1749.474907822967</v>
       </c>
       <c r="C2" t="n">
-        <v>473.4154778383031</v>
+        <v>1380.512390882555</v>
       </c>
       <c r="D2" t="n">
-        <v>473.4154778383031</v>
+        <v>1022.246692275804</v>
       </c>
       <c r="E2" t="n">
-        <v>473.4154778383031</v>
+        <v>636.4584396775601</v>
       </c>
       <c r="F2" t="n">
-        <v>62.42957304869552</v>
+        <v>225.4725348879525</v>
       </c>
       <c r="G2" t="n">
-        <v>48.25775485501623</v>
+        <v>211.3007166942733</v>
       </c>
       <c r="H2" t="n">
-        <v>48.25775485501623</v>
+        <v>211.3007166942733</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244778</v>
+        <v>143.3613405244782</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293489</v>
+        <v>406.6417666293496</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024617</v>
+        <v>785.5410436024627</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782768</v>
+        <v>1223.746040782769</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400858</v>
+        <v>1654.40965540086</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671741</v>
+        <v>2015.885456671743</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110673</v>
+        <v>2286.722307110675</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.887742750811</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045087</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="S2" t="n">
-        <v>2160.41638432015</v>
+        <v>2231.049518025877</v>
       </c>
       <c r="T2" t="n">
-        <v>2160.41638432015</v>
+        <v>2231.049518025877</v>
       </c>
       <c r="U2" t="n">
-        <v>1906.63472582766</v>
+        <v>2231.049518025877</v>
       </c>
       <c r="V2" t="n">
-        <v>1575.571838484089</v>
+        <v>2231.049518025877</v>
       </c>
       <c r="W2" t="n">
-        <v>1222.803183213975</v>
+        <v>2231.049518025877</v>
       </c>
       <c r="X2" t="n">
-        <v>849.3374249528954</v>
+        <v>2139.614239798778</v>
       </c>
       <c r="Y2" t="n">
-        <v>473.4154778383031</v>
+        <v>1749.474907822967</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>829.568049834343</v>
+        <v>988.8055048397986</v>
       </c>
       <c r="C3" t="n">
-        <v>655.115020553216</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="D3" t="n">
-        <v>506.1806108919648</v>
+        <v>665.4180658974203</v>
       </c>
       <c r="E3" t="n">
         <v>506.1806108919648</v>
@@ -4404,55 +4404,55 @@
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="K3" t="n">
-        <v>282.4696009334095</v>
+        <v>282.4696009334098</v>
       </c>
       <c r="L3" t="n">
-        <v>658.8007278096522</v>
+        <v>658.8007278096529</v>
       </c>
       <c r="M3" t="n">
-        <v>1149.940624122023</v>
+        <v>1017.08641166434</v>
       </c>
       <c r="N3" t="n">
-        <v>1669.786545444866</v>
+        <v>1536.932332987184</v>
       </c>
       <c r="O3" t="n">
-        <v>2078.92832505989</v>
+        <v>1946.074112602208</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.297606099999</v>
+        <v>2257.443393642317</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.887742750811</v>
+        <v>2412.887742750814</v>
       </c>
       <c r="R3" t="n">
-        <v>2412.887742750811</v>
+        <v>2354.422089841566</v>
       </c>
       <c r="S3" t="n">
-        <v>2330.377300770333</v>
+        <v>2193.780311634271</v>
       </c>
       <c r="T3" t="n">
-        <v>2130.963019108634</v>
+        <v>1994.366029972572</v>
       </c>
       <c r="U3" t="n">
-        <v>1902.784650784842</v>
+        <v>1766.18766164878</v>
       </c>
       <c r="V3" t="n">
-        <v>1667.632542553099</v>
+        <v>1531.035553417037</v>
       </c>
       <c r="W3" t="n">
-        <v>1413.395185824898</v>
+        <v>1404.417303810285</v>
       </c>
       <c r="X3" t="n">
-        <v>1205.543685619365</v>
+        <v>1196.565803604753</v>
       </c>
       <c r="Y3" t="n">
-        <v>997.783386854411</v>
+        <v>988.8055048397986</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.25775485501623</v>
+        <v>217.1939377829232</v>
       </c>
       <c r="C4" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="D4" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="E4" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J4" t="n">
-        <v>48.25775485501623</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294460999</v>
+        <v>91.87143294461015</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2083598384341</v>
+        <v>203.2083598384344</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534283</v>
+        <v>330.9866617534287</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692846</v>
+        <v>461.1612976692852</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984517</v>
+        <v>565.3823477984524</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978469</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="Q4" t="n">
-        <v>592.2931142257349</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="R4" t="n">
-        <v>592.2931142257349</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="S4" t="n">
-        <v>592.2931142257349</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="T4" t="n">
-        <v>592.2931142257349</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="U4" t="n">
-        <v>565.6644757899942</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="V4" t="n">
-        <v>565.6644757899942</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2473057530336</v>
+        <v>631.0407786978477</v>
       </c>
       <c r="X4" t="n">
-        <v>48.25775485501623</v>
+        <v>619.634981756693</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.25775485501623</v>
+        <v>398.8424026131629</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.111371249201</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>2072.529454785695</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>2072.529454785695</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2465.942913862886</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2465.942913862886</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4905,7 +4905,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>351.3014367967928</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866391</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1549.639626139994</v>
       </c>
       <c r="M11" t="n">
-        <v>2047.844055175504</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N11" t="n">
-        <v>3027.596327402151</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,10 +5072,10 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5121,7 +5121,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,16 +5130,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.7209910686896</v>
+        <v>720.6978970137292</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7848081407827</v>
+        <v>551.7617140858223</v>
       </c>
       <c r="D13" t="n">
-        <v>388.668168728447</v>
+        <v>401.6450746734866</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>253.7319810910935</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>253.7319810910935</v>
       </c>
       <c r="G13" t="n">
         <v>241.7782212305366</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927023</v>
@@ -5215,7 +5215,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
         <v>1956.343466104703</v>
@@ -5227,22 +5227,22 @@
         <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U13" t="n">
-        <v>1445.473983799872</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.789495593986</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W13" t="n">
-        <v>901.3723255570249</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X13" t="n">
-        <v>901.3723255570249</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3694558989293</v>
+        <v>902.3463618439689</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364129</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5379,28 +5379,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.9043113423044</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C16" t="n">
-        <v>260.9043113423044</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,34 +5452,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208121</v>
+        <v>1390.06190522587</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838515</v>
+        <v>1100.644735188909</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858342</v>
+        <v>872.6551842908918</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.9043113423044</v>
+        <v>651.8626051473617</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,7 +5498,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5604,40 +5604,40 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>673.3827746590098</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,7 +5671,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5692,31 +5692,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104705</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.576850674231</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799875</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1190.789495593988</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>901.3723255570271</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>673.3827746590098</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>673.3827746590098</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5738,7 +5738,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5850,7 +5850,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>270.9417306852376</v>
+        <v>557.6043516563537</v>
       </c>
       <c r="C22" t="n">
-        <v>270.9417306852376</v>
+        <v>388.6681687284469</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>388.6681687284469</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>388.6681687284469</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>241.7782212305365</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305365</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5908,13 +5908,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.576850674229</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.789495593986</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="W22" t="n">
-        <v>901.3723255570253</v>
+        <v>1186.137545020213</v>
       </c>
       <c r="X22" t="n">
-        <v>673.382774659008</v>
+        <v>958.1479941221952</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.5901955154777</v>
+        <v>739.2528164865935</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.9043113423041</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C25" t="n">
-        <v>260.9043113423041</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D25" t="n">
         <v>242.4509819463048</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6163,7 +6163,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
@@ -6181,16 +6181,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208123</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838515</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858343</v>
+        <v>481.6968904858342</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423041</v>
+        <v>424.0994467765445</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>416.1091927888629</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1521.866738172571</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M26" t="n">
-        <v>2055.398642844495</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6327,28 +6327,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839439</v>
+        <v>827.5554641779659</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1066.22635652044</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>838.2368056224229</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>838.2368056224229</v>
       </c>
     </row>
     <row r="29">
@@ -6455,7 +6455,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,16 +6464,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750059</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,7 +6637,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
@@ -6646,25 +6646,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1661.549245109219</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1661.549245109219</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783403</v>
+        <v>1406.864756903332</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413796</v>
+        <v>1117.447586866372</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>889.4580359683542</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>668.6654568248241</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6704,13 +6704,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.328657580449</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750059</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>562.5269503710301</v>
+        <v>656.6259356382595</v>
       </c>
       <c r="C34" t="n">
-        <v>393.5907674431232</v>
+        <v>487.6897527103526</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4741280307875</v>
+        <v>487.6897527103526</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431757</v>
+        <v>1717.820011653481</v>
       </c>
       <c r="U34" t="n">
-        <v>1644.746393431757</v>
+        <v>1428.717144779125</v>
       </c>
       <c r="V34" t="n">
-        <v>1390.06190522587</v>
+        <v>1174.032656573238</v>
       </c>
       <c r="W34" t="n">
-        <v>1192.957545242817</v>
+        <v>884.6154865362769</v>
       </c>
       <c r="X34" t="n">
-        <v>964.9679943448</v>
+        <v>656.6259356382595</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.1754152012699</v>
+        <v>656.6259356382595</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D35" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529678</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G35" t="n">
         <v>352.4579211424552</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571331</v>
+        <v>90.72827659571333</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967276</v>
@@ -6941,13 +6941,13 @@
         <v>607.2838383285446</v>
       </c>
       <c r="L35" t="n">
-        <v>1065.913843378164</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M35" t="n">
-        <v>2044.464146207992</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N35" t="n">
-        <v>3024.216418434638</v>
+        <v>3016.620626633428</v>
       </c>
       <c r="O35" t="n">
         <v>3527.188889313975</v>
@@ -6971,13 +6971,13 @@
         <v>3767.029658702264</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203183</v>
       </c>
       <c r="W35" t="n">
         <v>3154.90602777756</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.29422536097</v>
       </c>
       <c r="Y35" t="n">
         <v>2463.00884922965</v>
@@ -7017,25 +7017,25 @@
         <v>178.26260317029</v>
       </c>
       <c r="K36" t="n">
-        <v>416.5268021506382</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L36" t="n">
-        <v>783.2249624633034</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M36" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N36" t="n">
-        <v>1704.024331240074</v>
+        <v>1704.024331240073</v>
       </c>
       <c r="O36" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P36" t="n">
-        <v>2425.485202134231</v>
+        <v>2425.48520213423</v>
       </c>
       <c r="Q36" t="n">
-        <v>2583.126759780831</v>
+        <v>2583.12675978083</v>
       </c>
       <c r="R36" t="n">
         <v>2582.982406373346</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.3945831402971</v>
+        <v>835.5078991166356</v>
       </c>
       <c r="C37" t="n">
-        <v>641.3123560568808</v>
+        <v>702.4256720332194</v>
       </c>
       <c r="D37" t="n">
-        <v>527.0496724890359</v>
+        <v>611.3642961266005</v>
       </c>
       <c r="E37" t="n">
-        <v>414.9905347511333</v>
+        <v>499.3051583886981</v>
       </c>
       <c r="F37" t="n">
-        <v>303.9545430977137</v>
+        <v>388.2691667352785</v>
       </c>
       <c r="G37" t="n">
-        <v>172.1056623169234</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H37" t="n">
-        <v>84.58533367967276</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967276</v>
@@ -7096,10 +7096,10 @@
         <v>164.8484282497936</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L37" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7123,22 +7123,22 @@
         <v>2016.6830325948</v>
       </c>
       <c r="T37" t="n">
-        <v>1830.770373008817</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978951</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617555</v>
+        <v>1611.93984064742</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.127715425085</v>
+        <v>1358.376626454951</v>
       </c>
       <c r="X37" t="n">
-        <v>1105.127715425085</v>
+        <v>1166.241031401424</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.189092126046</v>
+        <v>981.3024081023846</v>
       </c>
     </row>
     <row r="38">
@@ -7160,46 +7160,46 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529681</v>
+        <v>731.6764154529682</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424554</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571331</v>
+        <v>90.72827659571333</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J38" t="n">
         <v>273.4644646386981</v>
       </c>
       <c r="K38" t="n">
-        <v>928.1877967739975</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L38" t="n">
-        <v>1379.222010022406</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M38" t="n">
-        <v>1912.75391469433</v>
+        <v>1667.471966757875</v>
       </c>
       <c r="N38" t="n">
-        <v>2459.532731753113</v>
+        <v>2647.224238984521</v>
       </c>
       <c r="O38" t="n">
-        <v>2962.50520263245</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P38" t="n">
-        <v>3675.860290079395</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q38" t="n">
-        <v>4134.338492588383</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T38" t="n">
         <v>3984.706179583936</v>
@@ -7248,22 +7248,22 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J39" t="n">
         <v>178.26260317029</v>
       </c>
       <c r="K39" t="n">
-        <v>416.5268021506382</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L39" t="n">
-        <v>783.2249624633034</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M39" t="n">
-        <v>1230.501287685619</v>
+        <v>1230.501287685618</v>
       </c>
       <c r="N39" t="n">
-        <v>1704.024331240074</v>
+        <v>1704.024331240073</v>
       </c>
       <c r="O39" t="n">
         <v>2114.985610658128</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867704</v>
+        <v>822.1481490707351</v>
       </c>
       <c r="C40" t="n">
-        <v>449.1767610033542</v>
+        <v>689.0659219873189</v>
       </c>
       <c r="D40" t="n">
-        <v>334.9140774355092</v>
+        <v>574.8032384194737</v>
       </c>
       <c r="E40" t="n">
-        <v>222.8549396976068</v>
+        <v>462.7441006815713</v>
       </c>
       <c r="F40" t="n">
-        <v>222.8549396976068</v>
+        <v>388.2691667352785</v>
       </c>
       <c r="G40" t="n">
-        <v>146.0570550168367</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H40" t="n">
         <v>146.0570550168367</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J40" t="n">
         <v>164.8484282497936</v>
@@ -7348,34 +7348,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045764</v>
+        <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
         <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923483</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.6830325948</v>
+        <v>2070.659533992782</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008817</v>
+        <v>2070.659533992782</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.521461978951</v>
+        <v>1817.410622962916</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617555</v>
+        <v>1598.58009060152</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425085</v>
+        <v>1345.01687640905</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715587</v>
+        <v>1152.881281355523</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725193</v>
+        <v>967.9426580564841</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C41" t="n">
         <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E41" t="n">
         <v>1106.808364398085</v>
@@ -7400,61 +7400,61 @@
         <v>731.6764154529681</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424553</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571331</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J41" t="n">
-        <v>273.4644646386981</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>607.2838383285446</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L41" t="n">
-        <v>1471.802653981899</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M41" t="n">
-        <v>2450.352956811727</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N41" t="n">
-        <v>3024.216418434638</v>
+        <v>2647.224238984521</v>
       </c>
       <c r="O41" t="n">
-        <v>3527.188889313975</v>
+        <v>3527.188889313976</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671153</v>
+        <v>3921.963255671154</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426835</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U41" t="n">
         <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W41" t="n">
         <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285977</v>
       </c>
       <c r="C42" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474707</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862196</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807642</v>
+        <v>476.992177780764</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076491</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402675</v>
       </c>
       <c r="H42" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781351</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J42" t="n">
-        <v>178.26260317029</v>
+        <v>178.2626031702901</v>
       </c>
       <c r="K42" t="n">
-        <v>416.5268021506371</v>
+        <v>416.5268021506373</v>
       </c>
       <c r="L42" t="n">
         <v>783.2249624633024</v>
@@ -7503,13 +7503,13 @@
         <v>1704.024331240073</v>
       </c>
       <c r="O42" t="n">
-        <v>2114.985610658127</v>
+        <v>2114.985610658128</v>
       </c>
       <c r="P42" t="n">
-        <v>2425.48520213423</v>
+        <v>2425.485202134231</v>
       </c>
       <c r="Q42" t="n">
-        <v>2583.12675978083</v>
+        <v>2583.126759780831</v>
       </c>
       <c r="R42" t="n">
         <v>2582.982406373346</v>
@@ -7527,7 +7527,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W42" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X42" t="n">
         <v>1335.59270751362</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>858.7092067778617</v>
+        <v>858.7092067778615</v>
       </c>
       <c r="C43" t="n">
-        <v>725.6269796944455</v>
+        <v>725.6269796944454</v>
       </c>
       <c r="D43" t="n">
-        <v>611.3642961266005</v>
+        <v>611.3642961266004</v>
       </c>
       <c r="E43" t="n">
-        <v>499.3051583886981</v>
+        <v>499.305158388698</v>
       </c>
       <c r="F43" t="n">
-        <v>388.2691667352785</v>
+        <v>388.2691667352784</v>
       </c>
       <c r="G43" t="n">
-        <v>256.4202859544882</v>
+        <v>256.4202859544881</v>
       </c>
       <c r="H43" t="n">
         <v>146.0570550168367</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J43" t="n">
         <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218554</v>
       </c>
       <c r="L43" t="n">
         <v>755.6763338935368</v>
@@ -7588,13 +7588,13 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T43" t="n">
         <v>1830.770373008817</v>
@@ -7609,10 +7609,10 @@
         <v>1358.376626454951</v>
       </c>
       <c r="X43" t="n">
-        <v>1189.44233906265</v>
+        <v>1166.241031401424</v>
       </c>
       <c r="Y43" t="n">
-        <v>1004.503715763611</v>
+        <v>981.3024081023848</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
         <v>1106.808364398085</v>
@@ -7637,10 +7637,10 @@
         <v>731.6764154529681</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571331</v>
+        <v>90.72827659571333</v>
       </c>
       <c r="I44" t="n">
         <v>84.58533367967276</v>
@@ -7652,10 +7652,10 @@
         <v>607.2838383285446</v>
       </c>
       <c r="L44" t="n">
-        <v>1065.913843378164</v>
+        <v>1471.802653981899</v>
       </c>
       <c r="M44" t="n">
-        <v>2044.464146207992</v>
+        <v>2450.352956811727</v>
       </c>
       <c r="N44" t="n">
         <v>3024.216418434638</v>
@@ -7679,13 +7679,13 @@
         <v>3984.706179583936</v>
       </c>
       <c r="U44" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V44" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
         <v>2817.294225360971</v>
@@ -7701,73 +7701,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285975</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474705</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862192</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807637</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076487</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402668</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5926252781343</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J45" t="n">
-        <v>178.26260317029</v>
+        <v>178.2626031702911</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506371</v>
+        <v>416.5268021506382</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633024</v>
+        <v>783.2249624633034</v>
       </c>
       <c r="M45" t="n">
-        <v>1230.501287685618</v>
+        <v>1230.501287685619</v>
       </c>
       <c r="N45" t="n">
-        <v>1704.024331240073</v>
+        <v>1704.024331240074</v>
       </c>
       <c r="O45" t="n">
-        <v>2114.985610658127</v>
+        <v>2114.985610658128</v>
       </c>
       <c r="P45" t="n">
-        <v>2425.48520213423</v>
+        <v>2425.485202134231</v>
       </c>
       <c r="Q45" t="n">
-        <v>2583.12675978083</v>
+        <v>2583.126759780831</v>
       </c>
       <c r="R45" t="n">
-        <v>2582.982406373345</v>
+        <v>2582.982406373346</v>
       </c>
       <c r="S45" t="n">
-        <v>2453.544519866825</v>
+        <v>2453.544519866826</v>
       </c>
       <c r="T45" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U45" t="n">
-        <v>2032.833672679096</v>
+        <v>2032.833672679097</v>
       </c>
       <c r="V45" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
-        <v>1543.444207719152</v>
+        <v>1543.444207719153</v>
       </c>
       <c r="X45" t="n">
-        <v>1335.592707513619</v>
+        <v>1335.59270751362</v>
       </c>
       <c r="Y45" t="n">
         <v>1127.832408748666</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>636.2354894847515</v>
+        <v>582.2589880867703</v>
       </c>
       <c r="C46" t="n">
-        <v>503.1532624013352</v>
+        <v>449.1767610033541</v>
       </c>
       <c r="D46" t="n">
-        <v>503.1532624013352</v>
+        <v>369.1521844081587</v>
       </c>
       <c r="E46" t="n">
-        <v>437.8334370515341</v>
+        <v>257.0930466702563</v>
       </c>
       <c r="F46" t="n">
-        <v>326.7974453981145</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="G46" t="n">
-        <v>194.9485646173242</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="H46" t="n">
-        <v>84.58533367967276</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I46" t="n">
         <v>84.58533367967276</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935367</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7828,28 +7828,28 @@
         <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2226.491462321464</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2070.659533992782</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
-        <v>1884.746874406798</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U46" t="n">
-        <v>1631.497963376932</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1412.667431015536</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1159.104216823067</v>
+        <v>1105.127715425085</v>
       </c>
       <c r="X46" t="n">
-        <v>966.9686217695398</v>
+        <v>912.9921203715588</v>
       </c>
       <c r="Y46" t="n">
-        <v>782.0299984705005</v>
+        <v>728.0534970725192</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733627</v>
+        <v>62.50551572733616</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>331.5088895503197</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.88111353616804</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>67.53663776704337</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,16 +8702,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>229.1155640189935</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>170.1140909277313</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>384.8145893755072</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>176.2173930448442</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>132.9990175570132</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,10 +10121,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>246.4545694808461</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>7.672516970919617</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>7.672516970919332</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>4.592992652874273e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>76.38586920100761</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>36.27386347318391</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,16 +11063,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>27.3582268324534</v>
+        <v>64.21926012015808</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>7.672516970919617</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>27.3582268324534</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5.009326287108706e-13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>154.191585997077</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.70181239058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>36.22666877314662</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>130.3466769161727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>54.59959448168003</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983812</v>
@@ -23938,7 +23938,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696682</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>141.0143920027658</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983812</v>
@@ -24175,16 +24175,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.878427492849123</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>130.346676916173</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>161.5631840798981</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>169.2574521519248</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696662</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>206.4038484921294</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>105.0742887270139</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>173.1797547009009</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>91.38968195336881</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>22.96929458461384</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>22.61447327739684</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379229</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029913</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368854</v>
+        <v>36.19544713005552</v>
       </c>
       <c r="G40" t="n">
-        <v>54.50048613901994</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.2595986282749</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>53.43673638400151</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>184.0535329901234</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>22.96929458461341</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>22.96929458461319</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321665</v>
+        <v>33.89572590292308</v>
       </c>
       <c r="E46" t="n">
-        <v>46.27191926422031</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379227</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400151</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297243</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>957440.0089297246</v>
+        <v>957440.0089297245</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>957440.0089297245</v>
+        <v>957440.0089297246</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>973736.5944802208</v>
+        <v>973736.5944802207</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>973736.5944802206</v>
+        <v>973736.5944802207</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719627</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
@@ -26323,7 +26323,7 @@
         <v>456644.054920031</v>
       </c>
       <c r="F2" t="n">
-        <v>456644.0549200308</v>
+        <v>456644.054920031</v>
       </c>
       <c r="G2" t="n">
         <v>456644.0549200308</v>
@@ -26332,13 +26332,13 @@
         <v>456644.0549200308</v>
       </c>
       <c r="I2" t="n">
+        <v>456644.0549200308</v>
+      </c>
+      <c r="J2" t="n">
         <v>456644.0549200309</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>456644.0549200308</v>
-      </c>
-      <c r="K2" t="n">
-        <v>456644.0549200309</v>
       </c>
       <c r="L2" t="n">
         <v>456644.0549200309</v>
@@ -26347,13 +26347,13 @@
         <v>468322.1547842054</v>
       </c>
       <c r="N2" t="n">
-        <v>468322.1547842054</v>
+        <v>468322.1547842053</v>
       </c>
       <c r="O2" t="n">
         <v>468322.1547842054</v>
       </c>
       <c r="P2" t="n">
-        <v>468322.1547842053</v>
+        <v>468322.1547842054</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394264</v>
+        <v>507203.1428394271</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418081</v>
+        <v>78665.28217418006</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410733</v>
+        <v>157829.4001410735</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022179</v>
+        <v>18289.94367022161</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223242.9088455554</v>
+        <v>223242.9088455552</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25090.72367499386</v>
+      </c>
+      <c r="H4" t="n">
         <v>25090.72367499384</v>
       </c>
-      <c r="G4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="I4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499385</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499385</v>
+        <v>25090.72367499384</v>
       </c>
       <c r="M4" t="n">
         <v>53328.24410000359</v>
       </c>
       <c r="N4" t="n">
+        <v>53328.24410000356</v>
+      </c>
+      <c r="O4" t="n">
+        <v>53328.24410000353</v>
+      </c>
+      <c r="P4" t="n">
         <v>53328.24410000359</v>
-      </c>
-      <c r="O4" t="n">
-        <v>53328.2441000036</v>
-      </c>
-      <c r="P4" t="n">
-        <v>53328.24410000361</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.6887113343</v>
+        <v>77204.68871133434</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26503,10 +26503,10 @@
         <v>91026.04982123677</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.04982123677</v>
+        <v>91026.04982123678</v>
       </c>
       <c r="P5" t="n">
         <v>91026.04982123677</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-335551.7227243533</v>
+        <v>-335551.7227243538</v>
       </c>
       <c r="C6" t="n">
-        <v>109510.1515066413</v>
+        <v>109510.1515066419</v>
       </c>
       <c r="D6" t="n">
         <v>188175.433680822</v>
       </c>
       <c r="E6" t="n">
-        <v>-392207.6010020832</v>
+        <v>-392274.7964923088</v>
       </c>
       <c r="F6" t="n">
-        <v>335169.8129913233</v>
+        <v>335102.6175010977</v>
       </c>
       <c r="G6" t="n">
-        <v>335169.8129913233</v>
+        <v>335102.6175010975</v>
       </c>
       <c r="H6" t="n">
-        <v>335169.8129913234</v>
+        <v>335102.6175010975</v>
       </c>
       <c r="I6" t="n">
-        <v>335169.8129913234</v>
+        <v>335102.6175010975</v>
       </c>
       <c r="J6" t="n">
-        <v>177340.4128502499</v>
+        <v>177273.2173600241</v>
       </c>
       <c r="K6" t="n">
-        <v>316879.8693211016</v>
+        <v>316812.6738308759</v>
       </c>
       <c r="L6" t="n">
-        <v>335169.8129913234</v>
+        <v>335102.6175010976</v>
       </c>
       <c r="M6" t="n">
-        <v>200119.0696747901</v>
+        <v>200102.6485317998</v>
       </c>
       <c r="N6" t="n">
-        <v>323967.8608629651</v>
+        <v>323951.4397199748</v>
       </c>
       <c r="O6" t="n">
-        <v>323967.860862965</v>
+        <v>323951.4397199749</v>
       </c>
       <c r="P6" t="n">
-        <v>323967.8608629649</v>
+        <v>323951.4397199748</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688976</v>
+        <v>316.5685789688982</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877029</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26823,10 +26823,10 @@
         <v>1057.316670995909</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="P4" t="n">
         <v>1057.316670995909</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688976</v>
+        <v>316.5685789688982</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818908</v>
+        <v>61.17508524818845</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877029</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685275</v>
+        <v>71.06533706685218</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877029</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685286</v>
+        <v>71.06533706685218</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877029</v>
+        <v>603.2219356877034</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685275</v>
+        <v>71.06533706685218</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841482</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208645</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>69.92680236866705</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>217.5248788930304</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>279.2101752336416</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.07521101260727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.88099638015525</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>77.35002286454836</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>126.3429160502356</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27558,7 +27558,7 @@
         <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255611</v>
+        <v>52.99928112255604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.36018782739076</v>
       </c>
       <c r="R4" t="n">
         <v>151.625388236511</v>
@@ -27591,19 +27591,19 @@
         <v>225.5064544755703</v>
       </c>
       <c r="U4" t="n">
-        <v>259.9255394120942</v>
+        <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>214.417916417294</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>211.6598136919109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>176.2099645886523</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>140.9809822185506</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>118.9239026052188</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>10.52067551358152</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.940255363782247e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604473</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604584</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604464</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30748,22 +30748,22 @@
         <v>35.49541628604582</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604583</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392552</v>
+        <v>1.272637503392555</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161898</v>
+        <v>13.033398831619</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954142</v>
+        <v>49.0633573495415</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035637</v>
+        <v>108.0135173035639</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221705</v>
+        <v>161.8842628221708</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166204</v>
+        <v>200.8317428166207</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175777</v>
+        <v>223.4640100175781</v>
       </c>
       <c r="N2" t="n">
-        <v>227.0798913240918</v>
+        <v>227.0798913240922</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497321</v>
+        <v>214.4251021497325</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847284</v>
+        <v>183.0068637847287</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944826</v>
+        <v>137.4305331944828</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248249</v>
+        <v>79.94231557248263</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855781</v>
+        <v>29.00022710855787</v>
       </c>
       <c r="T2" t="n">
-        <v>5.5709706711009</v>
+        <v>5.57097067110091</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714042</v>
+        <v>0.1018110002714043</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859307</v>
+        <v>0.680921094385932</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674648</v>
+        <v>6.57626425367466</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986648</v>
+        <v>23.44399381986652</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933042</v>
+        <v>64.33211093933053</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631878</v>
+        <v>109.953824263188</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665592</v>
+        <v>147.8464858665595</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380492</v>
+        <v>172.5298755380495</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648741</v>
+        <v>177.0962279648745</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313754</v>
+        <v>162.0084500313756</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674327</v>
+        <v>130.0260640674329</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915846</v>
+        <v>86.91898039915861</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248789</v>
+        <v>42.27683777248797</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861585</v>
+        <v>12.64781067861588</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739781</v>
+        <v>2.744589849739786</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012704</v>
+        <v>0.04479744042012712</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111267</v>
+        <v>0.5708613719111278</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173477</v>
+        <v>5.075476561173486</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801825</v>
+        <v>17.16735834801829</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411666</v>
+        <v>40.35989899411673</v>
       </c>
       <c r="K4" t="n">
-        <v>66.3237121184018</v>
+        <v>66.32371211840193</v>
       </c>
       <c r="L4" t="n">
-        <v>84.8715170566779</v>
+        <v>84.87151705667806</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148689</v>
+        <v>89.48511487148706</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890913</v>
+        <v>87.35735884890929</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522002</v>
+        <v>80.68866009522017</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823298</v>
+        <v>69.04308810823311</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430354</v>
+        <v>47.80185542430362</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065848</v>
+        <v>25.66800314065852</v>
       </c>
       <c r="S4" t="n">
-        <v>9.94855681776027</v>
+        <v>9.948556817760288</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711178</v>
+        <v>2.439134952711182</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333422</v>
+        <v>0.03113789301333428</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837924</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353167</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353167</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33986,7 +33986,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970259</v>
       </c>
       <c r="P39" t="n">
         <v>447.6103584002926</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026448</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895121</v>
+        <v>96.06422794895141</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483547</v>
+        <v>265.939824348355</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970836</v>
+        <v>382.7265423970839</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831374</v>
+        <v>442.6313102831379</v>
       </c>
       <c r="N2" t="n">
-        <v>435.013752139485</v>
+        <v>435.0137521394854</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907907</v>
+        <v>365.1270719907911</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009415</v>
+        <v>273.5725762009419</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799378</v>
+        <v>127.439833979938</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014074</v>
+        <v>236.5776223014076</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901442</v>
+        <v>380.1324513901445</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660308</v>
+        <v>361.9047311663509</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250944</v>
+        <v>525.0968902250947</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636604</v>
+        <v>413.2745248636608</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930396</v>
+        <v>314.5144252930398</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.81831984930498</v>
+        <v>157.0144940489862</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251895</v>
+        <v>44.05422029251908</v>
       </c>
       <c r="L4" t="n">
-        <v>112.461542316994</v>
+        <v>112.4615423169942</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333275</v>
+        <v>129.0689918333276</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281377</v>
+        <v>131.4895312281379</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092597</v>
+        <v>105.2737880092598</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312647</v>
+        <v>66.32164737312659</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>258.3236387357559</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>737.1685649072126</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,10 +35580,10 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
         <v>78.39423853789363</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7042053200632</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>923.7357052057338</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248955</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004591</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789557</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>427.0116978485636</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>323.7860185257257</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427824</v>
@@ -36841,10 +36841,10 @@
         <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>798.7564048937573</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M32" t="n">
         <v>988.434649323059</v>
@@ -37081,7 +37081,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37309,7 +37309,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>463.2626313632516</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
         <v>988.434649323059</v>
@@ -37318,7 +37318,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>515.7255178591383</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609577</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911202</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
@@ -37473,7 +37473,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O37" t="n">
         <v>337.8485465086856</v>
@@ -37543,28 +37543,28 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>615.3069850312341</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>95.88706201540863</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609577</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37634,7 +37634,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525815</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911202</v>
       </c>
       <c r="K40" t="n">
         <v>241.5430758303654</v>
@@ -37710,7 +37710,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
         <v>337.8485465086856</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>579.6600622453647</v>
+        <v>616.5210955330696</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K43" t="n">
         <v>241.5430758303654</v>
@@ -37944,7 +37944,7 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N43" t="n">
         <v>380.3523624535859</v>
@@ -37953,7 +37953,7 @@
         <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q43" t="n">
         <v>113.8896548239395</v>
@@ -38020,13 +38020,13 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>463.2626313632516</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>579.6600622453647</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359781</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911202</v>
       </c>
       <c r="K46" t="n">
         <v>241.5430758303654</v>
@@ -38184,7 +38184,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
         <v>337.8485465086856</v>
